--- a/data/nzd0127/nzd0127.xlsx
+++ b/data/nzd0127/nzd0127.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G574"/>
+  <dimension ref="A1:G585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15275,6 +15275,301 @@
         <v>407.52</v>
       </c>
       <c r="G574" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-26 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="n">
+        <v>406.4</v>
+      </c>
+      <c r="C575" t="n">
+        <v>396.9414285714286</v>
+      </c>
+      <c r="D575" t="n">
+        <v>393.5744444444445</v>
+      </c>
+      <c r="E575" t="n">
+        <v>388.5544444444445</v>
+      </c>
+      <c r="F575" t="n">
+        <v>397.04</v>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="n">
+        <v>400.08</v>
+      </c>
+      <c r="C576" t="n">
+        <v>397.6928571428572</v>
+      </c>
+      <c r="D576" t="n">
+        <v>389.7866666666667</v>
+      </c>
+      <c r="E576" t="n">
+        <v>377.4566666666667</v>
+      </c>
+      <c r="F576" t="n">
+        <v>387.32</v>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="n">
+        <v>411.89</v>
+      </c>
+      <c r="C577" t="n">
+        <v>404.8985714285715</v>
+      </c>
+      <c r="D577" t="n">
+        <v>391.8811111111111</v>
+      </c>
+      <c r="E577" t="n">
+        <v>386.2011111111111</v>
+      </c>
+      <c r="F577" t="n">
+        <v>397.53</v>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="n">
+        <v>407.36</v>
+      </c>
+      <c r="C578" t="n">
+        <v>404.1914285714286</v>
+      </c>
+      <c r="D578" t="n">
+        <v>392.8733333333333</v>
+      </c>
+      <c r="E578" t="n">
+        <v>391.9633333333333</v>
+      </c>
+      <c r="F578" t="n">
+        <v>398.83</v>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="n">
+        <v>394.66</v>
+      </c>
+      <c r="C579" t="n">
+        <v>391.4814285714286</v>
+      </c>
+      <c r="D579" t="n">
+        <v>389.4066666666667</v>
+      </c>
+      <c r="E579" t="n">
+        <v>379.7466666666666</v>
+      </c>
+      <c r="F579" t="n">
+        <v>392.14</v>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="n">
+        <v>400.85</v>
+      </c>
+      <c r="C580" t="n">
+        <v>397.7985714285714</v>
+      </c>
+      <c r="D580" t="n">
+        <v>396.03</v>
+      </c>
+      <c r="E580" t="n">
+        <v>384.2</v>
+      </c>
+      <c r="F580" t="n">
+        <v>398.71</v>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="n">
+        <v>415.47</v>
+      </c>
+      <c r="C581" t="n">
+        <v>415.12</v>
+      </c>
+      <c r="D581" t="n">
+        <v>404.8011111111111</v>
+      </c>
+      <c r="E581" t="n">
+        <v>398.9611111111111</v>
+      </c>
+      <c r="F581" t="n">
+        <v>407.44</v>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr"/>
+      <c r="C582" t="n">
+        <v>411.02</v>
+      </c>
+      <c r="D582" t="n">
+        <v>406.5977777777778</v>
+      </c>
+      <c r="E582" t="n">
+        <v>393.3277777777778</v>
+      </c>
+      <c r="F582" t="n">
+        <v>409.75</v>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="n">
+        <v>403.39</v>
+      </c>
+      <c r="C583" t="n">
+        <v>399.8242857142857</v>
+      </c>
+      <c r="D583" t="n">
+        <v>393.7844444444444</v>
+      </c>
+      <c r="E583" t="n">
+        <v>385.4744444444444</v>
+      </c>
+      <c r="F583" t="n">
+        <v>400.17</v>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:05:44+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="n">
+        <v>413.78</v>
+      </c>
+      <c r="C584" t="n">
+        <v>412.7857142857143</v>
+      </c>
+      <c r="D584" t="n">
+        <v>398.1133333333333</v>
+      </c>
+      <c r="E584" t="n">
+        <v>396.9633333333333</v>
+      </c>
+      <c r="F584" t="n">
+        <v>405.69</v>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="n">
+        <v>419.45</v>
+      </c>
+      <c r="C585" t="n">
+        <v>402.5271428571429</v>
+      </c>
+      <c r="D585" t="n">
+        <v>392.3666666666667</v>
+      </c>
+      <c r="E585" t="n">
+        <v>392.0266666666667</v>
+      </c>
+      <c r="F585" t="n">
+        <v>396.97</v>
+      </c>
+      <c r="G585" t="inlineStr">
         <is>
           <t>L8</t>
         </is>
@@ -15291,7 +15586,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B700"/>
+  <dimension ref="A1:B711"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22299,6 +22594,116 @@
       </c>
       <c r="B700" t="n">
         <v>0.74</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="inlineStr">
+        <is>
+          <t>2024-11-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B701" t="n">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B702" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B703" t="n">
+        <v>-0.58</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B704" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B705" t="n">
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B706" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B707" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B708" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B709" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B710" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B711" t="n">
+        <v>-0.6</v>
       </c>
     </row>
   </sheetData>
@@ -22467,28 +22872,28 @@
         <v>0.0405</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02387561247967844</v>
+        <v>0.05037557929922474</v>
       </c>
       <c r="J2" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="K2" t="n">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002991485537306993</v>
+        <v>0.001361500337601518</v>
       </c>
       <c r="M2" t="n">
-        <v>7.887206145431301</v>
+        <v>7.889057791365978</v>
       </c>
       <c r="N2" t="n">
-        <v>103.0277274900994</v>
+        <v>102.9616972019989</v>
       </c>
       <c r="O2" t="n">
-        <v>10.15025750856102</v>
+        <v>10.14700434620972</v>
       </c>
       <c r="P2" t="n">
-        <v>399.803721353437</v>
+        <v>399.5490750110918</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
@@ -22544,28 +22949,28 @@
         <v>0.0377</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06250080452356495</v>
+        <v>0.1022945650656485</v>
       </c>
       <c r="J3" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="K3" t="n">
-        <v>537</v>
+        <v>548</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00176403598323116</v>
+        <v>0.004787528824718668</v>
       </c>
       <c r="M3" t="n">
-        <v>8.491883972689459</v>
+        <v>8.535322893146667</v>
       </c>
       <c r="N3" t="n">
-        <v>120.3905866382208</v>
+        <v>121.0339768504384</v>
       </c>
       <c r="O3" t="n">
-        <v>10.97226442618937</v>
+        <v>11.00154429389067</v>
       </c>
       <c r="P3" t="n">
-        <v>391.0687447703627</v>
+        <v>390.6847788870169</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
@@ -22621,28 +23026,28 @@
         <v>0.0475</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1217657339326863</v>
+        <v>0.1498669117524563</v>
       </c>
       <c r="J4" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="K4" t="n">
-        <v>538</v>
+        <v>549</v>
       </c>
       <c r="L4" t="n">
-        <v>0.009088689295466024</v>
+        <v>0.01403719890208888</v>
       </c>
       <c r="M4" t="n">
-        <v>7.391783573410515</v>
+        <v>7.386453641001409</v>
       </c>
       <c r="N4" t="n">
-        <v>87.99428298298548</v>
+        <v>87.82418306927583</v>
       </c>
       <c r="O4" t="n">
-        <v>9.380526796666885</v>
+        <v>9.371455760407549</v>
       </c>
       <c r="P4" t="n">
-        <v>384.9732523738899</v>
+        <v>384.7041587692315</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
@@ -22698,28 +23103,28 @@
         <v>0.0469</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04517101146285305</v>
+        <v>0.07750072100876444</v>
       </c>
       <c r="J5" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="K5" t="n">
-        <v>544</v>
+        <v>555</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001072610807835495</v>
+        <v>0.003216790397368885</v>
       </c>
       <c r="M5" t="n">
-        <v>7.870655454888539</v>
+        <v>7.886623640494151</v>
       </c>
       <c r="N5" t="n">
-        <v>102.3169681891251</v>
+        <v>102.4501615283875</v>
       </c>
       <c r="O5" t="n">
-        <v>10.1151850299006</v>
+        <v>10.12176671971783</v>
       </c>
       <c r="P5" t="n">
-        <v>379.0167849477659</v>
+        <v>378.7039138242338</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
@@ -22775,28 +23180,28 @@
         <v>0.0405</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1439339391811146</v>
+        <v>0.154776983777883</v>
       </c>
       <c r="J6" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="K6" t="n">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01077957030577814</v>
+        <v>0.01307475080925591</v>
       </c>
       <c r="M6" t="n">
-        <v>7.44388877961083</v>
+        <v>7.375936718744332</v>
       </c>
       <c r="N6" t="n">
-        <v>100.2172532408163</v>
+        <v>98.73954201199123</v>
       </c>
       <c r="O6" t="n">
-        <v>10.01085676856962</v>
+        <v>9.936777244760558</v>
       </c>
       <c r="P6" t="n">
-        <v>393.5063412584964</v>
+        <v>393.4036290038326</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
@@ -22833,7 +23238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G574"/>
+  <dimension ref="A1:G585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42751,6 +43156,409 @@
         </is>
       </c>
     </row>
+    <row r="575">
+      <c r="A575" s="1" t="inlineStr">
+        <is>
+          <t>2024-11-26 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>-36.36871056094242,174.8373950178418</t>
+        </is>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>-36.369039230305596,174.83813640471405</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>-36.369194970403676,174.83895838816488</t>
+        </is>
+      </c>
+      <c r="E575" t="inlineStr">
+        <is>
+          <t>-36.36930503545579,174.83982610254526</t>
+        </is>
+      </c>
+      <c r="F575" t="inlineStr">
+        <is>
+          <t>-36.36927335413368,174.8407219342261</t>
+        </is>
+      </c>
+      <c r="G575" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-04 22:12:00+00:00</t>
+        </is>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>-36.36876380689049,174.83737000809074</t>
+        </is>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>-36.369032699151575,174.83813861872247</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>-36.369228832034956,174.8389530392088</t>
+        </is>
+      </c>
+      <c r="E576" t="inlineStr">
+        <is>
+          <t>-36.369404843172234,174.8398181029144</t>
+        </is>
+      </c>
+      <c r="F576" t="inlineStr">
+        <is>
+          <t>-36.36936084581232,174.84071654632913</t>
+        </is>
+      </c>
+      <c r="G576" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-13 22:05:46+00:00</t>
+        </is>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>-36.36866430773368,174.83741674305784</t>
+        </is>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>-36.36897006960429,174.83815984961444</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>-36.369210108311044,174.83895599690428</t>
+        </is>
+      </c>
+      <c r="E577" t="inlineStr">
+        <is>
+          <t>-36.36932620012787,174.83982440618905</t>
+        </is>
+      </c>
+      <c r="F577" t="inlineStr">
+        <is>
+          <t>-36.36926894354491,174.840722205838</t>
+        </is>
+      </c>
+      <c r="G577" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-21 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>-36.36870247294988,174.83739881678846</t>
+        </is>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>-36.36897621584273,174.83815776609256</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>-36.369201238133044,174.8389573980827</t>
+        </is>
+      </c>
+      <c r="E578" t="inlineStr">
+        <is>
+          <t>-36.369274377658726,174.8398285597777</t>
+        </is>
+      </c>
+      <c r="F578" t="inlineStr">
+        <is>
+          <t>-36.36925724198287,174.84072292644086</t>
+        </is>
+      </c>
+      <c r="G578" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-28 22:11:50+00:00</t>
+        </is>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>-36.36880947034221,174.83734855982874</t>
+        </is>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>-36.3690866867126,174.83812031736483</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>-36.36923222912438,174.83895250258703</t>
+        </is>
+      </c>
+      <c r="E579" t="inlineStr">
+        <is>
+          <t>-36.36938424808791,174.8398197536204</t>
+        </is>
+      </c>
+      <c r="F579" t="inlineStr">
+        <is>
+          <t>-36.3693174600212,174.8407192181062</t>
+        </is>
+      </c>
+      <c r="G579" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="1" t="inlineStr">
+        <is>
+          <t>2024-12-29 22:05:47+00:00</t>
+        </is>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>-36.36875731964707,174.83737305516658</t>
+        </is>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>-36.369031780320014,174.8381389301989</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>-36.369173018451306,174.83896185580517</t>
+        </is>
+      </c>
+      <c r="E580" t="inlineStr">
+        <is>
+          <t>-36.369344197094016,174.8398229637251</t>
+        </is>
+      </c>
+      <c r="F580" t="inlineStr">
+        <is>
+          <t>-36.36925832212706,174.8407228599237</t>
+        </is>
+      </c>
+      <c r="G580" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-05 22:11:55+00:00</t>
+        </is>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>-36.368634146258664,174.83743090994315</t>
+        </is>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>-36.36888122851774,174.83818996594175</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>-36.36909460726837,174.83897424201407</t>
+        </is>
+      </c>
+      <c r="E581" t="inlineStr">
+        <is>
+          <t>-36.369211443236516,174.83983360398773</t>
+        </is>
+      </c>
+      <c r="F581" t="inlineStr">
+        <is>
+          <t>-36.369179741636785,174.84072769904552</t>
+        </is>
+      </c>
+      <c r="G581" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-06 22:05:42+00:00</t>
+        </is>
+      </c>
+      <c r="B582" t="inlineStr"/>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>-36.36891686428634,174.8381778857455</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>-36.36907854559061,174.83897677919157</t>
+        </is>
+      </c>
+      <c r="E582" t="inlineStr">
+        <is>
+          <t>-36.369262106545634,174.83982954331103</t>
+        </is>
+      </c>
+      <c r="F582" t="inlineStr">
+        <is>
+          <t>-36.369158948860864,174.84072897949937</t>
+        </is>
+      </c>
+      <c r="G582" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-13 22:11:54+00:00</t>
+        </is>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>-36.36873592016827,174.83738310655622</t>
+        </is>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>-36.36901417352057,174.83814489875968</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>-36.36919309306477,174.83895868471882</t>
+        </is>
+      </c>
+      <c r="E583" t="inlineStr">
+        <is>
+          <t>-36.36933273539486,174.83982388238488</t>
+        </is>
+      </c>
+      <c r="F583" t="inlineStr">
+        <is>
+          <t>-36.36924518037274,174.84072366921598</t>
+        </is>
+      </c>
+      <c r="G583" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="1" t="inlineStr">
+        <is>
+          <t>2025-01-30 22:05:44+00:00</t>
+        </is>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>-36.36864838449707,174.83742422222485</t>
+        </is>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>-36.36890151731435,174.8381830882285</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>-36.36915439405721,174.8389647978063</t>
+        </is>
+      </c>
+      <c r="E584" t="inlineStr">
+        <is>
+          <t>-36.369229410224676,174.83983216392963</t>
+        </is>
+      </c>
+      <c r="F584" t="inlineStr">
+        <is>
+          <t>-36.369195493739724,174.84072672900442</t>
+        </is>
+      </c>
+      <c r="G584" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-07 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>-36.36860061478468,174.83744665970832</t>
+        </is>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>-36.36899068123204,174.8381528624489</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>-36.36920576758564,174.83895668258737</t>
+        </is>
+      </c>
+      <c r="E585" t="inlineStr">
+        <is>
+          <t>-36.36927380807123,174.8398286054303</t>
+        </is>
+      </c>
+      <c r="F585" t="inlineStr">
+        <is>
+          <t>-36.369273984217784,174.84072189542442</t>
+        </is>
+      </c>
+      <c r="G585" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0127/nzd0127.xlsx
+++ b/data/nzd0127/nzd0127.xlsx
@@ -22717,7 +22717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W6"/>
+  <dimension ref="A1:X6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22808,35 +22808,40 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>ERODIBILITY</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>geometry</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>land_x</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>land_y</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>sea_x</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>sea_y</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>center_x</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>center_y</t>
         </is>
@@ -22895,27 +22900,28 @@
       <c r="P2" t="n">
         <v>399.5490750110918</v>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr">
         <is>
           <t>LINESTRING (174.8357867292032 -36.37213446799728, 174.83943203840357 -36.364373478860806)</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>174.8357867292032</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>-36.37213446799728</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>174.8394320384036</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>-36.36437347886081</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>174.8376093838034</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>-36.36825397342904</v>
       </c>
     </row>
@@ -22972,27 +22978,28 @@
       <c r="P3" t="n">
         <v>390.6847788870169</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
         <is>
           <t>LINESTRING (174.83696680817027 -36.37248930099392, 174.83968071455362 -36.36448337674718)</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>174.8369668081703</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>-36.37248930099392</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>174.8396807145536</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>-36.36448337674718</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>174.8383237613619</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>-36.36848633887055</v>
       </c>
     </row>
@@ -23049,27 +23056,28 @@
       <c r="P4" t="n">
         <v>384.7041587692315</v>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
         <is>
           <t>LINESTRING (174.83840257582582 -36.372713409876376, 174.83970319708288 -36.364479697839144)</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>174.8384025758258</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>-36.37271340987638</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>174.8397031970829</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>-36.36447969783914</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>174.8390528864543</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>-36.36859655385776</v>
       </c>
     </row>
@@ -23126,27 +23134,28 @@
       <c r="P5" t="n">
         <v>378.7039138242338</v>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
         <is>
           <t>LINESTRING (174.83954601127377 -36.37279949375439, 174.84020989505882 -36.36451641231064)</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>174.8395460112738</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>-36.37279949375439</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>174.8402098950588</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>-36.36451641231064</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>174.8398779531663</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>-36.36865795303252</v>
       </c>
     </row>
@@ -23203,27 +23212,28 @@
       <c r="P6" t="n">
         <v>393.4036290038326</v>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr">
         <is>
           <t>LINESTRING (174.84050184447224 -36.37284719027059, 174.84101236249703 -36.3645570284293)</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>174.8405018444722</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>-36.37284719027059</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>174.841012362497</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>-36.3645570284293</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>174.8407571034846</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>-36.36870210934995</v>
       </c>
     </row>

--- a/data/nzd0127/nzd0127.xlsx
+++ b/data/nzd0127/nzd0127.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G585"/>
+  <dimension ref="A1:G590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15572,6 +15572,141 @@
       <c r="G585" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="n">
+        <v>403.81</v>
+      </c>
+      <c r="C586" t="n">
+        <v>406.18</v>
+      </c>
+      <c r="D586" t="n">
+        <v>393.1811111111111</v>
+      </c>
+      <c r="E586" t="n">
+        <v>382.5311111111111</v>
+      </c>
+      <c r="F586" t="n">
+        <v>400.02</v>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="n">
+        <v>413.1</v>
+      </c>
+      <c r="C587" t="n">
+        <v>409.5871428571429</v>
+      </c>
+      <c r="D587" t="n">
+        <v>405.1066666666667</v>
+      </c>
+      <c r="E587" t="n">
+        <v>396.0466666666667</v>
+      </c>
+      <c r="F587" t="n">
+        <v>404.21</v>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="n">
+        <v>406.51</v>
+      </c>
+      <c r="C588" t="n">
+        <v>404.22</v>
+      </c>
+      <c r="D588" t="n">
+        <v>395.3466666666667</v>
+      </c>
+      <c r="E588" t="n">
+        <v>387.1566666666667</v>
+      </c>
+      <c r="F588" t="n">
+        <v>397.21</v>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="n">
+        <v>411.12</v>
+      </c>
+      <c r="C589" t="n">
+        <v>413.6642857142857</v>
+      </c>
+      <c r="D589" t="n">
+        <v>397.8733333333333</v>
+      </c>
+      <c r="E589" t="n">
+        <v>394.8933333333333</v>
+      </c>
+      <c r="F589" t="n">
+        <v>405.59</v>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="n">
+        <v>410.36</v>
+      </c>
+      <c r="C590" t="n">
+        <v>401.8028571428572</v>
+      </c>
+      <c r="D590" t="n">
+        <v>398.6377777777778</v>
+      </c>
+      <c r="E590" t="n">
+        <v>395.4377777777778</v>
+      </c>
+      <c r="F590" t="n">
+        <v>400.07</v>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -15586,7 +15721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B711"/>
+  <dimension ref="A1:B716"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22704,6 +22839,56 @@
       </c>
       <c r="B711" t="n">
         <v>-0.6</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B712" t="n">
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B713" t="n">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B714" t="n">
+        <v>-0.42</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B715" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B716" t="n">
+        <v>-0.73</v>
       </c>
     </row>
   </sheetData>
@@ -22877,28 +23062,28 @@
         <v>0.0405</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05037557929922474</v>
+        <v>0.06572936546497847</v>
       </c>
       <c r="J2" t="n">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="K2" t="n">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001361500337601518</v>
+        <v>0.002347106895997486</v>
       </c>
       <c r="M2" t="n">
-        <v>7.889057791365978</v>
+        <v>7.89098669747303</v>
       </c>
       <c r="N2" t="n">
-        <v>102.9616972019989</v>
+        <v>102.6929382487522</v>
       </c>
       <c r="O2" t="n">
-        <v>10.14700434620972</v>
+        <v>10.13375242685315</v>
       </c>
       <c r="P2" t="n">
-        <v>399.5490750110918</v>
+        <v>399.4002820766378</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -22955,28 +23140,28 @@
         <v>0.0377</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1022945650656485</v>
+        <v>0.1258779605263193</v>
       </c>
       <c r="J3" t="n">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="K3" t="n">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="L3" t="n">
-        <v>0.004787528824718668</v>
+        <v>0.007256185957640882</v>
       </c>
       <c r="M3" t="n">
-        <v>8.535322893146667</v>
+        <v>8.582720664198096</v>
       </c>
       <c r="N3" t="n">
-        <v>121.0339768504384</v>
+        <v>121.766669282138</v>
       </c>
       <c r="O3" t="n">
-        <v>11.00154429389067</v>
+        <v>11.03479357677968</v>
       </c>
       <c r="P3" t="n">
-        <v>390.6847788870169</v>
+        <v>390.4551553558496</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23033,28 +23218,28 @@
         <v>0.0475</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1498669117524563</v>
+        <v>0.1662572051418433</v>
       </c>
       <c r="J4" t="n">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="K4" t="n">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01403719890208888</v>
+        <v>0.01736010158753443</v>
       </c>
       <c r="M4" t="n">
-        <v>7.386453641001409</v>
+        <v>7.40321728761743</v>
       </c>
       <c r="N4" t="n">
-        <v>87.82418306927583</v>
+        <v>87.96676351790265</v>
       </c>
       <c r="O4" t="n">
-        <v>9.371455760407549</v>
+        <v>9.379059841897941</v>
       </c>
       <c r="P4" t="n">
-        <v>384.7041587692315</v>
+        <v>384.5457337809785</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23111,28 +23296,28 @@
         <v>0.0469</v>
       </c>
       <c r="I5" t="n">
-        <v>0.07750072100876444</v>
+        <v>0.09559084842796201</v>
       </c>
       <c r="J5" t="n">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="K5" t="n">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003216790397368885</v>
+        <v>0.00491841381252589</v>
       </c>
       <c r="M5" t="n">
-        <v>7.886623640494151</v>
+        <v>7.906165346982589</v>
       </c>
       <c r="N5" t="n">
-        <v>102.4501615283875</v>
+        <v>102.7583559457363</v>
       </c>
       <c r="O5" t="n">
-        <v>10.12176671971783</v>
+        <v>10.13697962638459</v>
       </c>
       <c r="P5" t="n">
-        <v>378.7039138242338</v>
+        <v>378.5272376602322</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23189,28 +23374,28 @@
         <v>0.0405</v>
       </c>
       <c r="I6" t="n">
-        <v>0.154776983777883</v>
+        <v>0.1641703652410394</v>
       </c>
       <c r="J6" t="n">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="K6" t="n">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01307475080925591</v>
+        <v>0.01503141941827657</v>
       </c>
       <c r="M6" t="n">
-        <v>7.375936718744332</v>
+        <v>7.336837264344886</v>
       </c>
       <c r="N6" t="n">
-        <v>98.73954201199123</v>
+        <v>97.89102546240828</v>
       </c>
       <c r="O6" t="n">
-        <v>9.936777244760558</v>
+        <v>9.893989360334297</v>
       </c>
       <c r="P6" t="n">
-        <v>393.4036290038326</v>
+        <v>393.3141674321753</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23248,7 +23433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G585"/>
+  <dimension ref="A1:G590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43569,6 +43754,191 @@
         </is>
       </c>
     </row>
+    <row r="586">
+      <c r="A586" s="1" t="inlineStr">
+        <is>
+          <t>2025-02-23 22:05:31+00:00</t>
+        </is>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>-36.36873238167171,174.8373847685965</t>
+        </is>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>-36.36895893187516,174.83816362520784</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>-36.36919848668924,174.83895783271467</t>
+        </is>
+      </c>
+      <c r="E586" t="inlineStr">
+        <is>
+          <t>-36.36935920622398,174.83982176073704</t>
+        </is>
+      </c>
+      <c r="F586" t="inlineStr">
+        <is>
+          <t>-36.36924653055297,174.84072358606952</t>
+        </is>
+      </c>
+      <c r="G586" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-10 22:11:52+00:00</t>
+        </is>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>-36.3686541134923,174.83742153130797</t>
+        </is>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>-36.36892931818012,174.83817366398807</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>-36.36909187569052,174.8389746735069</t>
+        </is>
+      </c>
+      <c r="E587" t="inlineStr">
+        <is>
+          <t>-36.369237654254285,174.83983150316868</t>
+        </is>
+      </c>
+      <c r="F587" t="inlineStr">
+        <is>
+          <t>-36.36920881551817,174.84072590862658</t>
+        </is>
+      </c>
+      <c r="G587" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-11 22:05:27+00:00</t>
+        </is>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>-36.36870963419327,174.83739545313782</t>
+        </is>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>-36.368975967509854,174.83815785027528</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>-36.369179127252536,174.8389608908285</t>
+        </is>
+      </c>
+      <c r="E588" t="inlineStr">
+        <is>
+          <t>-36.36931760635168,174.83982509498344</t>
+        </is>
+      </c>
+      <c r="F588" t="inlineStr">
+        <is>
+          <t>-36.36927182392941,174.8407220284588</t>
+        </is>
+      </c>
+      <c r="G588" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-19 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>-36.368670794978115,174.83741369598897</t>
+        </is>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>-36.368893881078215,174.8381856768419</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>-36.36915653958742,174.83896445888783</t>
+        </is>
+      </c>
+      <c r="E589" t="inlineStr">
+        <is>
+          <t>-36.36924802674242,174.83983067181111</t>
+        </is>
+      </c>
+      <c r="F589" t="inlineStr">
+        <is>
+          <t>-36.36919639385988,174.84072667357347</t>
+        </is>
+      </c>
+      <c r="G589" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="1" t="inlineStr">
+        <is>
+          <t>2025-03-26 22:11:41+00:00</t>
+        </is>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>-36.368677197972545,174.83741068849193</t>
+        </is>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>-36.36899697647009,174.83815072841637</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>-36.36914970567639,174.83896553840586</t>
+        </is>
+      </c>
+      <c r="E590" t="inlineStr">
+        <is>
+          <t>-36.369243130288474,174.83983106426317</t>
+        </is>
+      </c>
+      <c r="F590" t="inlineStr">
+        <is>
+          <t>-36.36924608049289,174.840723613785</t>
+        </is>
+      </c>
+      <c r="G590" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0127/nzd0127.xlsx
+++ b/data/nzd0127/nzd0127.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G590"/>
+  <dimension ref="A1:G592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15707,6 +15707,60 @@
       <c r="G590" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="n">
+        <v>394.48</v>
+      </c>
+      <c r="C591" t="n">
+        <v>403.6928571428572</v>
+      </c>
+      <c r="D591" t="n">
+        <v>384.5233333333333</v>
+      </c>
+      <c r="E591" t="n">
+        <v>379.1933333333333</v>
+      </c>
+      <c r="F591" t="n">
+        <v>416.01</v>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="n">
+        <v>403.7</v>
+      </c>
+      <c r="C592" t="n">
+        <v>397.96</v>
+      </c>
+      <c r="D592" t="n">
+        <v>392.8311111111111</v>
+      </c>
+      <c r="E592" t="n">
+        <v>382.4111111111111</v>
+      </c>
+      <c r="F592" t="n">
+        <v>393.2</v>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -15721,7 +15775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B716"/>
+  <dimension ref="A1:B718"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22889,6 +22943,26 @@
       </c>
       <c r="B716" t="n">
         <v>-0.73</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B717" t="n">
+        <v>-0.66</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B718" t="n">
+        <v>-0.49</v>
       </c>
     </row>
   </sheetData>
@@ -23062,28 +23136,28 @@
         <v>0.0405</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06572936546497847</v>
+        <v>0.06421684291580333</v>
       </c>
       <c r="J2" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="K2" t="n">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002347106895997486</v>
+        <v>0.002257072050156794</v>
       </c>
       <c r="M2" t="n">
-        <v>7.89098669747303</v>
+        <v>7.878178801023736</v>
       </c>
       <c r="N2" t="n">
-        <v>102.6929382487522</v>
+        <v>102.3909043225278</v>
       </c>
       <c r="O2" t="n">
-        <v>10.13375242685315</v>
+        <v>10.11883907978222</v>
       </c>
       <c r="P2" t="n">
-        <v>399.4002820766378</v>
+        <v>399.4150226828862</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23140,28 +23214,28 @@
         <v>0.0377</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1258779605263193</v>
+        <v>0.1307721383286028</v>
       </c>
       <c r="J3" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="K3" t="n">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007256185957640882</v>
+        <v>0.007871481818154558</v>
       </c>
       <c r="M3" t="n">
-        <v>8.582720664198096</v>
+        <v>8.577291943251222</v>
       </c>
       <c r="N3" t="n">
-        <v>121.766669282138</v>
+        <v>121.53824952299</v>
       </c>
       <c r="O3" t="n">
-        <v>11.03479357677968</v>
+        <v>11.02443873959078</v>
       </c>
       <c r="P3" t="n">
-        <v>390.4551553558496</v>
+        <v>390.4071123592235</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23218,28 +23292,28 @@
         <v>0.0475</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1662572051418433</v>
+        <v>0.1661504208000926</v>
       </c>
       <c r="J4" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="K4" t="n">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01736010158753443</v>
+        <v>0.01745639508473207</v>
       </c>
       <c r="M4" t="n">
-        <v>7.40321728761743</v>
+        <v>7.391514872582603</v>
       </c>
       <c r="N4" t="n">
-        <v>87.96676351790265</v>
+        <v>87.71239490105762</v>
       </c>
       <c r="O4" t="n">
-        <v>9.379059841897941</v>
+        <v>9.365489570815699</v>
       </c>
       <c r="P4" t="n">
-        <v>384.5457337809785</v>
+        <v>384.5467462653553</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23296,28 +23370,28 @@
         <v>0.0469</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09559084842796201</v>
+        <v>0.09545947931068759</v>
       </c>
       <c r="J5" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="K5" t="n">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L5" t="n">
-        <v>0.00491841381252589</v>
+        <v>0.004941396218631544</v>
       </c>
       <c r="M5" t="n">
-        <v>7.906165346982589</v>
+        <v>7.883767914078744</v>
       </c>
       <c r="N5" t="n">
-        <v>102.7583559457363</v>
+        <v>102.4019888358329</v>
       </c>
       <c r="O5" t="n">
-        <v>10.13697962638459</v>
+        <v>10.11938678161048</v>
       </c>
       <c r="P5" t="n">
-        <v>378.5272376602322</v>
+        <v>378.5285197909377</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23374,28 +23448,28 @@
         <v>0.0405</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1641703652410394</v>
+        <v>0.1706967833367918</v>
       </c>
       <c r="J6" t="n">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="K6" t="n">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01503141941827657</v>
+        <v>0.01626536633852493</v>
       </c>
       <c r="M6" t="n">
-        <v>7.336837264344886</v>
+        <v>7.355055802622427</v>
       </c>
       <c r="N6" t="n">
-        <v>97.89102546240828</v>
+        <v>98.26368311582731</v>
       </c>
       <c r="O6" t="n">
-        <v>9.893989360334297</v>
+        <v>9.912803998658871</v>
       </c>
       <c r="P6" t="n">
-        <v>393.3141674321753</v>
+        <v>393.2516309858984</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23433,7 +23507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G590"/>
+  <dimension ref="A1:G592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43939,6 +44013,80 @@
         </is>
       </c>
     </row>
+    <row r="591">
+      <c r="A591" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-06 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>-36.36881098684055,174.83734784752443</t>
+        </is>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>-36.368980549251226,174.8381562971042</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>-36.36927588470311,174.83894560652251</t>
+        </is>
+      </c>
+      <c r="E591" t="inlineStr">
+        <is>
+          <t>-36.36938922448383,174.8398193547599</t>
+        </is>
+      </c>
+      <c r="F591" t="inlineStr">
+        <is>
+          <t>-36.36910260133791,174.8407324494717</t>
+        </is>
+      </c>
+      <c r="G591" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-21 22:11:16+00:00</t>
+        </is>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>-36.36873330842081,174.83738433330026</t>
+        </is>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>-36.3690303772394,174.83813940583184</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>-36.36920161558743,174.83895733845807</t>
+        </is>
+      </c>
+      <c r="E592" t="inlineStr">
+        <is>
+          <t>-36.36936028544239,174.83982167423724</t>
+        </is>
+      </c>
+      <c r="F592" t="inlineStr">
+        <is>
+          <t>-36.3693079187476,174.84071980567518</t>
+        </is>
+      </c>
+      <c r="G592" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0127/nzd0127.xlsx
+++ b/data/nzd0127/nzd0127.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tides" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transects" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Intersects" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Tides" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Transects" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Intersect points" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G592"/>
+  <dimension ref="A1:G594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15761,6 +15761,58 @@
       <c r="G592" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:06+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="n">
+        <v>400.02</v>
+      </c>
+      <c r="C593" t="n">
+        <v>385.9414285714286</v>
+      </c>
+      <c r="D593" t="n">
+        <v>389.3266666666667</v>
+      </c>
+      <c r="E593" t="n">
+        <v>377.1366666666667</v>
+      </c>
+      <c r="F593" t="inlineStr"/>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="n">
+        <v>391.04</v>
+      </c>
+      <c r="C594" t="n">
+        <v>379.3642857142857</v>
+      </c>
+      <c r="D594" t="n">
+        <v>383.1566666666667</v>
+      </c>
+      <c r="E594" t="n">
+        <v>374.1466666666667</v>
+      </c>
+      <c r="F594" t="n">
+        <v>387.78</v>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -15775,7 +15827,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B718"/>
+  <dimension ref="A1:B720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22963,6 +23015,26 @@
       </c>
       <c r="B718" t="n">
         <v>-0.49</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B719" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B720" t="n">
+        <v>-0.78</v>
       </c>
     </row>
   </sheetData>
@@ -23136,28 +23208,28 @@
         <v>0.0405</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06421684291580333</v>
+        <v>0.06004560017323605</v>
       </c>
       <c r="J2" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K2" t="n">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="L2" t="n">
-        <v>0.002257072050156794</v>
+        <v>0.001986474609203648</v>
       </c>
       <c r="M2" t="n">
-        <v>7.878178801023736</v>
+        <v>7.868967999870964</v>
       </c>
       <c r="N2" t="n">
-        <v>102.3909043225278</v>
+        <v>102.1896253712775</v>
       </c>
       <c r="O2" t="n">
-        <v>10.11883907978222</v>
+        <v>10.10888843401081</v>
       </c>
       <c r="P2" t="n">
-        <v>399.4150226828862</v>
+        <v>399.4558953108314</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23214,28 +23286,28 @@
         <v>0.0377</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1307721383286028</v>
+        <v>0.1231529831521054</v>
       </c>
       <c r="J3" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K3" t="n">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007871481818154558</v>
+        <v>0.007011343182570018</v>
       </c>
       <c r="M3" t="n">
-        <v>8.577291943251222</v>
+        <v>8.586369989797994</v>
       </c>
       <c r="N3" t="n">
-        <v>121.53824952299</v>
+        <v>121.5812987491152</v>
       </c>
       <c r="O3" t="n">
-        <v>11.02443873959078</v>
+        <v>11.0263910119819</v>
       </c>
       <c r="P3" t="n">
-        <v>390.4071123592235</v>
+        <v>390.4821545014649</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23292,28 +23364,28 @@
         <v>0.0475</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1661504208000926</v>
+        <v>0.1643505682757221</v>
       </c>
       <c r="J4" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K4" t="n">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01745639508473207</v>
+        <v>0.01720331683642085</v>
       </c>
       <c r="M4" t="n">
-        <v>7.391514872582603</v>
+        <v>7.376124925116748</v>
       </c>
       <c r="N4" t="n">
-        <v>87.71239490105762</v>
+        <v>87.45621292519816</v>
       </c>
       <c r="O4" t="n">
-        <v>9.365489570815699</v>
+        <v>9.351802656450689</v>
       </c>
       <c r="P4" t="n">
-        <v>384.5467462653553</v>
+        <v>384.5643448051699</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23370,28 +23442,28 @@
         <v>0.0469</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09545947931068759</v>
+        <v>0.09178225098201266</v>
       </c>
       <c r="J5" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K5" t="n">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004941396218631544</v>
+        <v>0.004599081680002337</v>
       </c>
       <c r="M5" t="n">
-        <v>7.883767914078744</v>
+        <v>7.875157832690496</v>
       </c>
       <c r="N5" t="n">
-        <v>102.4019888358329</v>
+        <v>102.1474499011702</v>
       </c>
       <c r="O5" t="n">
-        <v>10.11938678161048</v>
+        <v>10.10680215998959</v>
       </c>
       <c r="P5" t="n">
-        <v>378.5285197909377</v>
+        <v>378.5648154688994</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23448,28 +23520,28 @@
         <v>0.0405</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1706967833367918</v>
+        <v>0.1661136999992561</v>
       </c>
       <c r="J6" t="n">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="K6" t="n">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01626536633852493</v>
+        <v>0.01546270372376657</v>
       </c>
       <c r="M6" t="n">
-        <v>7.355055802622427</v>
+        <v>7.360876768597073</v>
       </c>
       <c r="N6" t="n">
-        <v>98.26368311582731</v>
+        <v>98.26099985569549</v>
       </c>
       <c r="O6" t="n">
-        <v>9.912803998658871</v>
+        <v>9.91266865459022</v>
       </c>
       <c r="P6" t="n">
-        <v>393.2516309858984</v>
+        <v>393.2957470224721</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23507,7 +23579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G592"/>
+  <dimension ref="A1:G594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35714,7 +35786,7 @@
       </c>
       <c r="D350" t="inlineStr">
         <is>
-          <t>-36.36930729288027,174.8389406451177</t>
+          <t>-36.36930729288028,174.8389406451177</t>
         </is>
       </c>
       <c r="E350" t="inlineStr">
@@ -38892,7 +38964,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>-36.36875504489937,174.83737412362163</t>
+          <t>-36.368755044899366,174.83737412362163</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -44087,6 +44159,76 @@
         </is>
       </c>
     </row>
+    <row r="593">
+      <c r="A593" s="1" t="inlineStr">
+        <is>
+          <t>2025-05-30 22:05:06+00:00</t>
+        </is>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>-36.368764312389985,174.83736977065624</t>
+        </is>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>-36.36913483844953,174.83810399428472</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>-36.369232944301096,174.838952389614</t>
+        </is>
+      </c>
+      <c r="E593" t="inlineStr">
+        <is>
+          <t>-36.369407721087946,174.83981787224798</t>
+        </is>
+      </c>
+      <c r="F593" t="inlineStr"/>
+      <c r="G593" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-07 22:05:05+00:00</t>
+        </is>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>-36.36883996880803,174.8373342345924</t>
+        </is>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>-36.3691920046658,174.83808461533783</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>-36.36928810230526,174.8389436765647</t>
+        </is>
+      </c>
+      <c r="E594" t="inlineStr">
+        <is>
+          <t>-36.3694346116128,174.83981571695833</t>
+        </is>
+      </c>
+      <c r="F594" t="inlineStr">
+        <is>
+          <t>-36.36935670525964,174.84071680131208</t>
+        </is>
+      </c>
+      <c r="G594" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0127/nzd0127.xlsx
+++ b/data/nzd0127/nzd0127.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G594"/>
+  <dimension ref="A1:G595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15811,6 +15811,27 @@
         <v>387.78</v>
       </c>
       <c r="G594" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="n">
+        <v>390.14</v>
+      </c>
+      <c r="C595" t="n">
+        <v>368.7142857142857</v>
+      </c>
+      <c r="D595" t="inlineStr"/>
+      <c r="E595" t="inlineStr"/>
+      <c r="F595" t="inlineStr"/>
+      <c r="G595" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15827,7 +15848,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B720"/>
+  <dimension ref="A1:B721"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23035,6 +23056,16 @@
       </c>
       <c r="B720" t="n">
         <v>-0.78</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B721" t="n">
+        <v>-0.92</v>
       </c>
     </row>
   </sheetData>
@@ -23208,28 +23239,28 @@
         <v>0.0405</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06004560017323605</v>
+        <v>0.05596496275431353</v>
       </c>
       <c r="J2" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K2" t="n">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001986474609203648</v>
+        <v>0.001729370395116669</v>
       </c>
       <c r="M2" t="n">
-        <v>7.868967999870964</v>
+        <v>7.874509282297462</v>
       </c>
       <c r="N2" t="n">
-        <v>102.1896253712775</v>
+        <v>102.2193128885004</v>
       </c>
       <c r="O2" t="n">
-        <v>10.10888843401081</v>
+        <v>10.1103567142065</v>
       </c>
       <c r="P2" t="n">
-        <v>399.4558953108314</v>
+        <v>399.4959682822555</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23286,28 +23317,28 @@
         <v>0.0377</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1231529831521054</v>
+        <v>0.1146218595328233</v>
       </c>
       <c r="J3" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K3" t="n">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="L3" t="n">
-        <v>0.007011343182570018</v>
+        <v>0.006046767129516462</v>
       </c>
       <c r="M3" t="n">
-        <v>8.586369989797994</v>
+        <v>8.615510696297537</v>
       </c>
       <c r="N3" t="n">
-        <v>121.5812987491152</v>
+        <v>122.4739147422202</v>
       </c>
       <c r="O3" t="n">
-        <v>11.0263910119819</v>
+        <v>11.06679333602197</v>
       </c>
       <c r="P3" t="n">
-        <v>390.4821545014649</v>
+        <v>390.5663917009282</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23367,7 +23398,7 @@
         <v>0.1643505682757221</v>
       </c>
       <c r="J4" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K4" t="n">
         <v>558</v>
@@ -23445,7 +23476,7 @@
         <v>0.09178225098201266</v>
       </c>
       <c r="J5" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K5" t="n">
         <v>564</v>
@@ -23523,7 +23554,7 @@
         <v>0.1661136999992561</v>
       </c>
       <c r="J6" t="n">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K6" t="n">
         <v>437</v>
@@ -23579,7 +23610,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G594"/>
+  <dimension ref="A1:G595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44229,6 +44260,31 @@
         </is>
       </c>
     </row>
+    <row r="595">
+      <c r="A595" s="1" t="inlineStr">
+        <is>
+          <t>2025-06-23 22:05:18+00:00</t>
+        </is>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>-36.3688475512993,174.83733067306787</t>
+        </is>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>-36.36928457072018,174.8380532360351</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr"/>
+      <c r="E595" t="inlineStr"/>
+      <c r="F595" t="inlineStr"/>
+      <c r="G595" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0127/nzd0127.xlsx
+++ b/data/nzd0127/nzd0127.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G595"/>
+  <dimension ref="A1:G597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15832,6 +15832,54 @@
       <c r="E595" t="inlineStr"/>
       <c r="F595" t="inlineStr"/>
       <c r="G595" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="n">
+        <v>393.96</v>
+      </c>
+      <c r="C596" t="n">
+        <v>393.8442857142857</v>
+      </c>
+      <c r="D596" t="n">
+        <v>385.5944444444444</v>
+      </c>
+      <c r="E596" t="n">
+        <v>377.8344444444445</v>
+      </c>
+      <c r="F596" t="n">
+        <v>388.83</v>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr"/>
+      <c r="C597" t="inlineStr"/>
+      <c r="D597" t="inlineStr"/>
+      <c r="E597" t="n">
+        <v>359.98</v>
+      </c>
+      <c r="F597" t="n">
+        <v>364.61</v>
+      </c>
+      <c r="G597" t="inlineStr">
         <is>
           <t>L9</t>
         </is>
@@ -15848,7 +15896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B721"/>
+  <dimension ref="A1:B723"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23066,6 +23114,26 @@
       </c>
       <c r="B721" t="n">
         <v>-0.92</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B722" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B723" t="n">
+        <v>0.27</v>
       </c>
     </row>
   </sheetData>
@@ -23239,28 +23307,28 @@
         <v>0.0405</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05596496275431353</v>
+        <v>0.05334150817951263</v>
       </c>
       <c r="J2" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K2" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001729370395116669</v>
+        <v>0.001576346690080666</v>
       </c>
       <c r="M2" t="n">
-        <v>7.874509282297462</v>
+        <v>7.872538661266502</v>
       </c>
       <c r="N2" t="n">
-        <v>102.2193128885004</v>
+        <v>102.1155572671547</v>
       </c>
       <c r="O2" t="n">
-        <v>10.1103567142065</v>
+        <v>10.10522425615358</v>
       </c>
       <c r="P2" t="n">
-        <v>399.4959682822555</v>
+        <v>399.5218121381823</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23317,28 +23385,28 @@
         <v>0.0377</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1146218595328233</v>
+        <v>0.1147237217754522</v>
       </c>
       <c r="J3" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K3" t="n">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L3" t="n">
-        <v>0.006046767129516462</v>
+        <v>0.00607993129488027</v>
       </c>
       <c r="M3" t="n">
-        <v>8.615510696297537</v>
+        <v>8.600630666707668</v>
       </c>
       <c r="N3" t="n">
-        <v>122.4739147422202</v>
+        <v>122.2549779461207</v>
       </c>
       <c r="O3" t="n">
-        <v>11.06679333602197</v>
+        <v>11.05689730196137</v>
       </c>
       <c r="P3" t="n">
-        <v>390.5663917009282</v>
+        <v>390.5653826770491</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23395,28 +23463,28 @@
         <v>0.0475</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1643505682757221</v>
+        <v>0.1632255273639089</v>
       </c>
       <c r="J4" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K4" t="n">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01720331683642085</v>
+        <v>0.01703310271102976</v>
       </c>
       <c r="M4" t="n">
-        <v>7.376124925116748</v>
+        <v>7.368784297873724</v>
       </c>
       <c r="N4" t="n">
-        <v>87.45621292519816</v>
+        <v>87.31846781121205</v>
       </c>
       <c r="O4" t="n">
-        <v>9.351802656450689</v>
+        <v>9.344435125314535</v>
       </c>
       <c r="P4" t="n">
-        <v>384.5643448051699</v>
+        <v>384.5754020432254</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23473,28 +23541,28 @@
         <v>0.0469</v>
       </c>
       <c r="I5" t="n">
-        <v>0.09178225098201266</v>
+        <v>0.0835029310693171</v>
       </c>
       <c r="J5" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K5" t="n">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="L5" t="n">
-        <v>0.004599081680002337</v>
+        <v>0.003809213930026201</v>
       </c>
       <c r="M5" t="n">
-        <v>7.875157832690496</v>
+        <v>7.890801089204663</v>
       </c>
       <c r="N5" t="n">
-        <v>102.1474499011702</v>
+        <v>102.5751510456395</v>
       </c>
       <c r="O5" t="n">
-        <v>10.10680215998959</v>
+        <v>10.12793913121714</v>
       </c>
       <c r="P5" t="n">
-        <v>378.5648154688994</v>
+        <v>378.6470675145047</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23551,28 +23619,28 @@
         <v>0.0405</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1661136999992561</v>
+        <v>0.1468264992553883</v>
       </c>
       <c r="J6" t="n">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="K6" t="n">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="L6" t="n">
-        <v>0.01546270372376657</v>
+        <v>0.0119325878997214</v>
       </c>
       <c r="M6" t="n">
-        <v>7.360876768597073</v>
+        <v>7.42347847960142</v>
       </c>
       <c r="N6" t="n">
-        <v>98.26099985569549</v>
+        <v>100.4409846038662</v>
       </c>
       <c r="O6" t="n">
-        <v>9.91266865459022</v>
+        <v>10.02202497521665</v>
       </c>
       <c r="P6" t="n">
-        <v>393.2957470224721</v>
+        <v>393.4824581441589</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23610,7 +23678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G595"/>
+  <dimension ref="A1:G597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44285,6 +44353,68 @@
         </is>
       </c>
     </row>
+    <row r="596">
+      <c r="A596" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-17 22:05:28+00:00</t>
+        </is>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>-36.368815367835715,174.83734578975626</t>
+        </is>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>-36.36906614958641,174.83812727929163</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>-36.36926630928155,174.83894711910696</t>
+        </is>
+      </c>
+      <c r="E596" t="inlineStr">
+        <is>
+          <t>-36.36940144563285,174.83981837522887</t>
+        </is>
+      </c>
+      <c r="F596" t="inlineStr">
+        <is>
+          <t>-36.36934725399811,174.84071738333833</t>
+        </is>
+      </c>
+      <c r="G596" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="1" t="inlineStr">
+        <is>
+          <t>2025-07-25 22:05:30+00:00</t>
+        </is>
+      </c>
+      <c r="B597" t="inlineStr"/>
+      <c r="C597" t="inlineStr"/>
+      <c r="D597" t="inlineStr"/>
+      <c r="E597" t="inlineStr">
+        <is>
+          <t>-36.36956201933772,174.83980550514747</t>
+        </is>
+      </c>
+      <c r="F597" t="inlineStr">
+        <is>
+          <t>-36.369565263094145,174.8407039579098</t>
+        </is>
+      </c>
+      <c r="G597" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0127/nzd0127.xlsx
+++ b/data/nzd0127/nzd0127.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G597"/>
+  <dimension ref="A1:G601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15882,6 +15882,106 @@
       <c r="G597" t="inlineStr">
         <is>
           <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="n">
+        <v>387.71</v>
+      </c>
+      <c r="C598" t="n">
+        <v>374.8685714285714</v>
+      </c>
+      <c r="D598" t="n">
+        <v>374.4</v>
+      </c>
+      <c r="E598" t="n">
+        <v>366.98</v>
+      </c>
+      <c r="F598" t="inlineStr"/>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="n">
+        <v>388.91</v>
+      </c>
+      <c r="C599" t="n">
+        <v>375.2</v>
+      </c>
+      <c r="D599" t="n">
+        <v>375.7655555555555</v>
+      </c>
+      <c r="E599" t="n">
+        <v>365.4155555555556</v>
+      </c>
+      <c r="F599" t="inlineStr"/>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="n">
+        <v>388.52</v>
+      </c>
+      <c r="C600" t="n">
+        <v>378.0328571428572</v>
+      </c>
+      <c r="D600" t="n">
+        <v>376.6522222222222</v>
+      </c>
+      <c r="E600" t="n">
+        <v>368.6322222222223</v>
+      </c>
+      <c r="F600" t="inlineStr"/>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="n">
+        <v>377.06</v>
+      </c>
+      <c r="C601" t="n">
+        <v>361.1157142857143</v>
+      </c>
+      <c r="D601" t="n">
+        <v>372.6755555555556</v>
+      </c>
+      <c r="E601" t="n">
+        <v>364.4555555555555</v>
+      </c>
+      <c r="F601" t="inlineStr"/>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>L8</t>
         </is>
       </c>
     </row>
@@ -15896,7 +15996,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B723"/>
+  <dimension ref="A1:B727"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23134,6 +23234,46 @@
       </c>
       <c r="B723" t="n">
         <v>0.27</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B724" t="n">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B725" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B726" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B727" t="n">
+        <v>-0.83</v>
       </c>
     </row>
   </sheetData>
@@ -23307,28 +23447,28 @@
         <v>0.0405</v>
       </c>
       <c r="I2" t="n">
-        <v>0.05334150817951263</v>
+        <v>0.03069215410333586</v>
       </c>
       <c r="J2" t="n">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="K2" t="n">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001576346690080666</v>
+        <v>0.0005210428164136305</v>
       </c>
       <c r="M2" t="n">
-        <v>7.872538661266502</v>
+        <v>7.929430214275579</v>
       </c>
       <c r="N2" t="n">
-        <v>102.1155572671547</v>
+        <v>103.2861263951897</v>
       </c>
       <c r="O2" t="n">
-        <v>10.10522425615358</v>
+        <v>10.1629782246736</v>
       </c>
       <c r="P2" t="n">
-        <v>399.5218121381823</v>
+        <v>399.7456554276066</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23385,28 +23525,28 @@
         <v>0.0377</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1147237217754522</v>
+        <v>0.08610875657835618</v>
       </c>
       <c r="J3" t="n">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="K3" t="n">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="L3" t="n">
-        <v>0.00607993129488027</v>
+        <v>0.003389511471739715</v>
       </c>
       <c r="M3" t="n">
-        <v>8.600630666707668</v>
+        <v>8.688354798470229</v>
       </c>
       <c r="N3" t="n">
-        <v>122.2549779461207</v>
+        <v>124.8326457255352</v>
       </c>
       <c r="O3" t="n">
-        <v>11.05689730196137</v>
+        <v>11.17285307007728</v>
       </c>
       <c r="P3" t="n">
-        <v>390.5653826770491</v>
+        <v>390.849769238415</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23463,28 +23603,28 @@
         <v>0.0475</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1632255273639089</v>
+        <v>0.1441744215507022</v>
       </c>
       <c r="J4" t="n">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="K4" t="n">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01703310271102976</v>
+        <v>0.01333329972013453</v>
       </c>
       <c r="M4" t="n">
-        <v>7.368784297873724</v>
+        <v>7.41601549943671</v>
       </c>
       <c r="N4" t="n">
-        <v>87.31846781121205</v>
+        <v>88.06735306680339</v>
       </c>
       <c r="O4" t="n">
-        <v>9.344435125314535</v>
+        <v>9.384420763520964</v>
       </c>
       <c r="P4" t="n">
-        <v>384.5754020432254</v>
+        <v>384.7632188168275</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23541,28 +23681,28 @@
         <v>0.0469</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0835029310693171</v>
+        <v>0.06398429494518518</v>
       </c>
       <c r="J5" t="n">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="K5" t="n">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003809213930026201</v>
+        <v>0.002241858146178832</v>
       </c>
       <c r="M5" t="n">
-        <v>7.890801089204663</v>
+        <v>7.937833240907898</v>
       </c>
       <c r="N5" t="n">
-        <v>102.5751510456395</v>
+        <v>103.3069154971619</v>
       </c>
       <c r="O5" t="n">
-        <v>10.12793913121714</v>
+        <v>10.16400095912835</v>
       </c>
       <c r="P5" t="n">
-        <v>378.6470675145047</v>
+        <v>378.8414002526488</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23622,7 +23762,7 @@
         <v>0.1468264992553883</v>
       </c>
       <c r="J6" t="n">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="K6" t="n">
         <v>439</v>
@@ -23678,7 +23818,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G597"/>
+  <dimension ref="A1:G601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44415,6 +44555,138 @@
         </is>
       </c>
     </row>
+    <row r="598">
+      <c r="A598" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-01 22:11:42+00:00</t>
+        </is>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>-36.36886802402522,174.83732105694835</t>
+        </is>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>-36.369231079834144,174.83807136911355</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>-36.369366384355224,174.83893131070067</t>
+        </is>
+      </c>
+      <c r="E598" t="inlineStr">
+        <is>
+          <t>-36.36949906493278,174.83981055098644</t>
+        </is>
+      </c>
+      <c r="F598" t="inlineStr"/>
+      <c r="G598" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-09 22:11:49+00:00</t>
+        </is>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>-36.36885791403719,174.83732580564995</t>
+        </is>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>-36.36922819917354,174.83807234563892</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>-36.36935417668632,174.83893323909274</t>
+        </is>
+      </c>
+      <c r="E599" t="inlineStr">
+        <is>
+          <t>-36.369513134742704,174.839809423282</t>
+        </is>
+      </c>
+      <c r="F599" t="inlineStr"/>
+      <c r="G599" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-10 22:05:40+00:00</t>
+        </is>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>-36.368861199783325,174.83732426232206</t>
+        </is>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>-36.36920357697509,174.83808069240266</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>-36.369346250144574,174.83893449121362</t>
+        </is>
+      </c>
+      <c r="E600" t="inlineStr">
+        <is>
+          <t>-36.369484205694576,174.83981174196376</t>
+        </is>
+      </c>
+      <c r="F600" t="inlineStr"/>
+      <c r="G600" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-18 22:05:41+00:00</t>
+        </is>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>-36.368957750161485,174.83727891216986</t>
+        </is>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>-36.36935061482603,174.83803084745963</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>-36.3693818003862,174.8389288754969</t>
+        </is>
+      </c>
+      <c r="E601" t="inlineStr">
+        <is>
+          <t>-36.369521768489676,174.8398087312814</t>
+        </is>
+      </c>
+      <c r="F601" t="inlineStr"/>
+      <c r="G601" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0127/nzd0127.xlsx
+++ b/data/nzd0127/nzd0127.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G601"/>
+  <dimension ref="A1:G606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15982,6 +15982,133 @@
       <c r="G601" t="inlineStr">
         <is>
           <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="n">
+        <v>386.21</v>
+      </c>
+      <c r="C602" t="n">
+        <v>377.4757142857143</v>
+      </c>
+      <c r="D602" t="n">
+        <v>371.4933333333333</v>
+      </c>
+      <c r="E602" t="n">
+        <v>365.6233333333333</v>
+      </c>
+      <c r="F602" t="n">
+        <v>398.61</v>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:59+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="n">
+        <v>386.26</v>
+      </c>
+      <c r="C603" t="n">
+        <v>381.7</v>
+      </c>
+      <c r="D603" t="n">
+        <v>373.9255555555556</v>
+      </c>
+      <c r="E603" t="n">
+        <v>368.5755555555555</v>
+      </c>
+      <c r="F603" t="n">
+        <v>402.94</v>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr"/>
+      <c r="C604" t="n">
+        <v>383.9042857142857</v>
+      </c>
+      <c r="D604" t="n">
+        <v>373.7322222222222</v>
+      </c>
+      <c r="E604" t="n">
+        <v>367.1422222222222</v>
+      </c>
+      <c r="F604" t="n">
+        <v>404.71</v>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr"/>
+      <c r="C605" t="n">
+        <v>345.8442857142857</v>
+      </c>
+      <c r="D605" t="n">
+        <v>358.7922222222222</v>
+      </c>
+      <c r="E605" t="inlineStr"/>
+      <c r="F605" t="inlineStr"/>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="n">
+        <v>388.25</v>
+      </c>
+      <c r="C606" t="n">
+        <v>375.26</v>
+      </c>
+      <c r="D606" t="n">
+        <v>375.8233333333333</v>
+      </c>
+      <c r="E606" t="n">
+        <v>363.0133333333333</v>
+      </c>
+      <c r="F606" t="n">
+        <v>379.4</v>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>L9</t>
         </is>
       </c>
     </row>
@@ -15996,7 +16123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B727"/>
+  <dimension ref="A1:B732"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23274,6 +23401,56 @@
       </c>
       <c r="B727" t="n">
         <v>-0.83</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B728" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B729" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B730" t="n">
+        <v>-0.71</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B731" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:10:00+00:00</t>
+        </is>
+      </c>
+      <c r="B732" t="n">
+        <v>-0.84</v>
       </c>
     </row>
   </sheetData>
@@ -23447,28 +23624,28 @@
         <v>0.0405</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03069215410333586</v>
+        <v>0.01578670146894983</v>
       </c>
       <c r="J2" t="n">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="K2" t="n">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0005210428164136305</v>
+        <v>0.0001381710140995196</v>
       </c>
       <c r="M2" t="n">
-        <v>7.929430214275579</v>
+        <v>7.962413526601269</v>
       </c>
       <c r="N2" t="n">
-        <v>103.2861263951897</v>
+        <v>103.7464167309866</v>
       </c>
       <c r="O2" t="n">
-        <v>10.1629782246736</v>
+        <v>10.18559849645501</v>
       </c>
       <c r="P2" t="n">
-        <v>399.7456554276066</v>
+        <v>399.8934280264896</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="inlineStr">
@@ -23525,28 +23702,28 @@
         <v>0.0377</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08610875657835618</v>
+        <v>0.05267659033716039</v>
       </c>
       <c r="J3" t="n">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="K3" t="n">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003389511471739715</v>
+        <v>0.001242270497861409</v>
       </c>
       <c r="M3" t="n">
-        <v>8.688354798470229</v>
+        <v>8.790641175868268</v>
       </c>
       <c r="N3" t="n">
-        <v>124.8326457255352</v>
+        <v>128.9369953478542</v>
       </c>
       <c r="O3" t="n">
-        <v>11.17285307007728</v>
+        <v>11.35504272769831</v>
       </c>
       <c r="P3" t="n">
-        <v>390.849769238415</v>
+        <v>391.1832717298187</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="inlineStr">
@@ -23603,28 +23780,28 @@
         <v>0.0475</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1441744215507022</v>
+        <v>0.114462804084884</v>
       </c>
       <c r="J4" t="n">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="K4" t="n">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="L4" t="n">
-        <v>0.01333329972013453</v>
+        <v>0.008316607203343818</v>
       </c>
       <c r="M4" t="n">
-        <v>7.41601549943671</v>
+        <v>7.508229527323403</v>
       </c>
       <c r="N4" t="n">
-        <v>88.06735306680339</v>
+        <v>90.33031434112736</v>
       </c>
       <c r="O4" t="n">
-        <v>9.384420763520964</v>
+        <v>9.504226130576196</v>
       </c>
       <c r="P4" t="n">
-        <v>384.7632188168275</v>
+        <v>385.0571723724634</v>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="inlineStr">
@@ -23681,28 +23858,28 @@
         <v>0.0469</v>
       </c>
       <c r="I5" t="n">
-        <v>0.06398429494518518</v>
+        <v>0.04479605151842715</v>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="K5" t="n">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="L5" t="n">
-        <v>0.002241858146178832</v>
+        <v>0.001100873601450836</v>
       </c>
       <c r="M5" t="n">
-        <v>7.937833240907898</v>
+        <v>7.984046819539051</v>
       </c>
       <c r="N5" t="n">
-        <v>103.3069154971619</v>
+        <v>104.0354775625458</v>
       </c>
       <c r="O5" t="n">
-        <v>10.16400095912835</v>
+        <v>10.19977830948035</v>
       </c>
       <c r="P5" t="n">
-        <v>378.8414002526488</v>
+        <v>379.0330945288491</v>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
@@ -23759,28 +23936,28 @@
         <v>0.0405</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1468264992553883</v>
+        <v>0.1451590113749043</v>
       </c>
       <c r="J6" t="n">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="K6" t="n">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0119325878997214</v>
+        <v>0.01180339315898882</v>
       </c>
       <c r="M6" t="n">
-        <v>7.42347847960142</v>
+        <v>7.429509435044069</v>
       </c>
       <c r="N6" t="n">
-        <v>100.4409846038662</v>
+        <v>100.45756798845</v>
       </c>
       <c r="O6" t="n">
-        <v>10.02202497521665</v>
+        <v>10.022852288069</v>
       </c>
       <c r="P6" t="n">
-        <v>393.4824581441589</v>
+        <v>393.4988368807699</v>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="inlineStr">
@@ -23818,7 +23995,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G601"/>
+  <dimension ref="A1:G606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44687,6 +44864,175 @@
         </is>
       </c>
     </row>
+    <row r="602">
+      <c r="A602" s="1" t="inlineStr">
+        <is>
+          <t>2025-08-25 22:11:51+00:00</t>
+        </is>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>-36.36888066151001,174.83731512106968</t>
+        </is>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>-36.36920841946499,174.83807905083077</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>-36.36939236910844,174.83892720600107</t>
+        </is>
+      </c>
+      <c r="E602" t="inlineStr">
+        <is>
+          <t>-36.36951126609607,174.83980957305528</t>
+        </is>
+      </c>
+      <c r="F602" t="inlineStr">
+        <is>
+          <t>-36.36925922224721,174.8407228044927</t>
+        </is>
+      </c>
+      <c r="G602" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-02 22:11:59+00:00</t>
+        </is>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>-36.36888024026052,174.83731531893235</t>
+        </is>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>-36.3691717034577,174.83809149730834</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>-36.36937062575036,174.8389306407059</t>
+        </is>
+      </c>
+      <c r="E603" t="inlineStr">
+        <is>
+          <t>-36.36948471532547,174.83981170111653</t>
+        </is>
+      </c>
+      <c r="F603" t="inlineStr">
+        <is>
+          <t>-36.36922024704426,174.84072520465358</t>
+        </is>
+      </c>
+      <c r="G603" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-03 22:05:45+00:00</t>
+        </is>
+      </c>
+      <c r="B604" t="inlineStr"/>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>-36.36915254458024,174.8380979920334</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>-36.36937235409403,174.83893036768694</t>
+        </is>
+      </c>
+      <c r="E604" t="inlineStr">
+        <is>
+          <t>-36.36949760598942,174.8398106679217</t>
+        </is>
+      </c>
+      <c r="F604" t="inlineStr">
+        <is>
+          <t>-36.36920431491734,174.84072618578128</t>
+        </is>
+      </c>
+      <c r="G604" t="inlineStr">
+        <is>
+          <t>L8</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-11 22:05:51+00:00</t>
+        </is>
+      </c>
+      <c r="B605" t="inlineStr"/>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>-36.369483348691475,174.83798585132413</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>-36.36950591333957,174.8389092698796</t>
+        </is>
+      </c>
+      <c r="E605" t="inlineStr"/>
+      <c r="F605" t="inlineStr"/>
+      <c r="G605" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="1" t="inlineStr">
+        <is>
+          <t>2025-09-18 22:12:01+00:00</t>
+        </is>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>-36.36886347453063,174.83732319386422</t>
+        </is>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>-36.36922767767464,174.8380725224237</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>-36.36935366016983,174.8389333206846</t>
+        </is>
+      </c>
+      <c r="E606" t="inlineStr">
+        <is>
+          <t>-36.369534739095656,174.83980769167843</t>
+        </is>
+      </c>
+      <c r="F606" t="inlineStr">
+        <is>
+          <t>-36.36943213532741,174.84071215618508</t>
+        </is>
+      </c>
+      <c r="G606" t="inlineStr">
+        <is>
+          <t>L9</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/nzd0127/nzd0127.xlsx
+++ b/data/nzd0127/nzd0127.xlsx
@@ -23615,13 +23615,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04</v>
+        <v>0.045</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0391</v>
+        <v>0.0399</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0405</v>
+        <v>0.0513</v>
       </c>
       <c r="I2" t="n">
         <v>0.01578670146894983</v>
@@ -23693,13 +23693,13 @@
         <v>0.245500492246932</v>
       </c>
       <c r="F3" t="n">
-        <v>0.035</v>
+        <v>0.04</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0348</v>
+        <v>0.0346</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0377</v>
+        <v>0.0419</v>
       </c>
       <c r="I3" t="n">
         <v>0.05266420361503175</v>
@@ -23771,13 +23771,13 @@
         <v>0.4970714117866468</v>
       </c>
       <c r="F4" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0443</v>
+        <v>0.0455</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0475</v>
+        <v>0.0576</v>
       </c>
       <c r="I4" t="n">
         <v>0.1144765360956251</v>
@@ -23849,13 +23849,13 @@
         <v>0.7485931626462093</v>
       </c>
       <c r="F5" t="n">
-        <v>0.045</v>
+        <v>0.05</v>
       </c>
       <c r="G5" t="n">
         <v>0.0438</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0469</v>
+        <v>0.0534</v>
       </c>
       <c r="I5" t="n">
         <v>0.04481113064777861</v>
@@ -23927,13 +23927,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0394</v>
+        <v>0.0458</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0405</v>
+        <v>0.0571</v>
       </c>
       <c r="I6" t="n">
         <v>0.1451590113749043</v>
